--- a/Project-KTXForecasting/Result/Result_Stats_KK.xlsx
+++ b/Project-KTXForecasting/Result/Result_Stats_KK.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFCD245-539B-45E6-9A06-589ECA767A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB72843-1862-4C2D-851E-ED7D54B2C97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{AC808E02-6729-4071-B5AC-204983E17A37}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{AC808E02-6729-4071-B5AC-204983E17A37}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="독립변수" sheetId="1" r:id="rId1"/>
+    <sheet name="기초통계" sheetId="4" r:id="rId2"/>
+    <sheet name="BaggingBoosting" sheetId="2" r:id="rId3"/>
+    <sheet name="ResultOpt" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$G$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ResultOpt!$A$1:$G$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="168">
   <si>
     <t>전체주중주말</t>
   </si>
@@ -787,9 +788,6 @@
     <t>DilatedRNN</t>
   </si>
   <si>
-    <t>TCN</t>
-  </si>
-  <si>
     <t>경부선</t>
   </si>
   <si>
@@ -843,6 +841,15 @@
   <si>
     <t>전처리방향</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별 승차인원수 평균</t>
+  </si>
+  <si>
+    <t>월별 승차인원수 표준편차</t>
+  </si>
+  <si>
+    <t>월별 승차인원수 최대값</t>
   </si>
 </sst>
 </file>
@@ -922,7 +929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,6 +943,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1255,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF193ACD-0AB7-4B2A-9581-E48569D9581F}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B48"/>
     </sheetView>
   </sheetViews>
@@ -1863,6 +1873,269 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E997E6F-1255-4136-9DBD-C835F55E85A4}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2387398</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1210415</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3894486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1207555</v>
+      </c>
+      <c r="D4" s="5">
+        <v>631933</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2144330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1179843</v>
+      </c>
+      <c r="D5" s="5">
+        <v>596738</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1968430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="5">
+        <v>412924</v>
+      </c>
+      <c r="D6" s="5">
+        <v>210629</v>
+      </c>
+      <c r="E6" s="5">
+        <v>716861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="5">
+        <v>209397</v>
+      </c>
+      <c r="D7" s="5">
+        <v>111073</v>
+      </c>
+      <c r="E7" s="5">
+        <v>412828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="5">
+        <v>203527</v>
+      </c>
+      <c r="D8" s="5">
+        <v>102553</v>
+      </c>
+      <c r="E8" s="5">
+        <v>379607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="5">
+        <v>109223</v>
+      </c>
+      <c r="D9" s="5">
+        <v>218167</v>
+      </c>
+      <c r="E9" s="5">
+        <v>612267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="5">
+        <v>52069</v>
+      </c>
+      <c r="D10" s="5">
+        <v>104835</v>
+      </c>
+      <c r="E10" s="5">
+        <v>324842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="5">
+        <v>57154</v>
+      </c>
+      <c r="D11" s="5">
+        <v>114084</v>
+      </c>
+      <c r="E11" s="5">
+        <v>345258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="5">
+        <v>417882</v>
+      </c>
+      <c r="D12" s="5">
+        <v>234184</v>
+      </c>
+      <c r="E12" s="5">
+        <v>840753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="5">
+        <v>214397</v>
+      </c>
+      <c r="D13" s="5">
+        <v>122773</v>
+      </c>
+      <c r="E13" s="5">
+        <v>461647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="5">
+        <v>203485</v>
+      </c>
+      <c r="D14" s="5">
+        <v>114576</v>
+      </c>
+      <c r="E14" s="5">
+        <v>413158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="5">
+        <v>675680</v>
+      </c>
+      <c r="D15" s="5">
+        <v>331543</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1088042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="5">
+        <v>339963</v>
+      </c>
+      <c r="D16" s="5">
+        <v>173952</v>
+      </c>
+      <c r="E16" s="5">
+        <v>583089</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="5">
+        <v>335716</v>
+      </c>
+      <c r="D17" s="5">
+        <v>163390</v>
+      </c>
+      <c r="E17" s="5">
+        <v>588227</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F637FBD-389D-4337-A376-332D6C455648}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1959,13 +2232,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD59130C-D36E-4750-9F51-D7ED1F98F6A2}">
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1979,11 +2252,14 @@
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.4140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.9140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.9140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="38.08203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -2024,16 +2300,16 @@
         <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O1" t="s">
         <v>128</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q1" t="s">
         <v>129</v>
@@ -2045,21 +2321,21 @@
         <v>131</v>
       </c>
       <c r="T1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>143</v>
@@ -2071,52 +2347,52 @@
         <v>136</v>
       </c>
       <c r="E2">
-        <v>2.5499999999999998E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F2">
-        <v>7.8700000000000006E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="G2">
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="H2">
-        <v>9.1800000000000007E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
         <v>143</v>
       </c>
       <c r="L2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M2" t="str">
         <f>VLOOKUP(L2,$V:$X,2,FALSE)</f>
-        <v>좌석및운행정보</v>
+        <v>과거승차인원수</v>
       </c>
       <c r="N2" t="str">
         <f>VLOOKUP(L2,$V:$X,3,FALSE)</f>
-        <v>시간정보+외부환경</v>
+        <v>-</v>
       </c>
       <c r="O2" t="s">
         <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="R2" s="4">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="S2" s="4">
+        <v>154</v>
+      </c>
+      <c r="Q2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="R2">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="S2">
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="T2" s="4">
         <f>AVERAGE(Q2:S2)</f>
-        <v>4.7933333333333335E-2</v>
+        <v>2.7200000000000002E-2</v>
       </c>
       <c r="V2" t="s">
         <v>135</v>
@@ -2125,12 +2401,12 @@
         <v>71</v>
       </c>
       <c r="X2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>143</v>
@@ -2142,19 +2418,19 @@
         <v>136</v>
       </c>
       <c r="E3">
-        <v>2.5499999999999998E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F3">
-        <v>7.8700000000000006E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="G3">
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="H3">
-        <v>9.1200000000000003E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
         <v>141</v>
@@ -2171,37 +2447,37 @@
         <v>시간정보</v>
       </c>
       <c r="O3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>2.46E-2</v>
-      </c>
-      <c r="R3" s="4">
-        <v>9.4299999999999995E-2</v>
-      </c>
-      <c r="S3" s="4">
-        <v>5.0700000000000002E-2</v>
+        <v>155</v>
+      </c>
+      <c r="Q3">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="R3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="S3">
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T16" si="2">AVERAGE(Q3:S3)</f>
-        <v>5.6533333333333331E-2</v>
+        <v>3.1199999999999995E-2</v>
       </c>
       <c r="V3" t="s">
         <v>137</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
         <v>143</v>
@@ -2213,19 +2489,19 @@
         <v>136</v>
       </c>
       <c r="E4">
-        <v>2.5499999999999998E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F4">
-        <v>7.8700000000000006E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="G4">
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="H4">
-        <v>9.1200000000000003E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K4" t="s">
         <v>134</v>
@@ -2245,35 +2521,35 @@
         <v>142</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0.12379999999999999</v>
-      </c>
-      <c r="S4" s="4">
+        <v>155</v>
+      </c>
+      <c r="Q4">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="R4">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="S4">
         <v>8.09E-2</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="2"/>
-        <v>7.9466666666666672E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" t="s">
         <v>138</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>143</v>
@@ -2285,16 +2561,16 @@
         <v>136</v>
       </c>
       <c r="E5">
-        <v>2.5499999999999998E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F5">
-        <v>7.8700000000000006E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="G5">
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="H5">
-        <v>0.1013</v>
+        <v>6.3E-2</v>
       </c>
       <c r="J5" t="s">
         <v>149</v>
@@ -2303,40 +2579,40 @@
         <v>143</v>
       </c>
       <c r="L5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>좌석및운행정보+외부환경+과거승차인원수</v>
+        <v>좌석및운행정보+외부환경</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="1"/>
         <v>시간정보</v>
       </c>
       <c r="O5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>2.46E-2</v>
-      </c>
-      <c r="R5" s="4">
-        <v>7.2599999999999998E-2</v>
-      </c>
-      <c r="S5" s="4">
+        <v>154</v>
+      </c>
+      <c r="Q5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="R5">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="S5">
         <v>3.5799999999999998E-2</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="2"/>
-        <v>4.4333333333333336E-2</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="V5" t="s">
         <v>139</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>33</v>
@@ -2344,7 +2620,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
         <v>143</v>
@@ -2356,16 +2632,16 @@
         <v>136</v>
       </c>
       <c r="E6">
-        <v>2.5499999999999998E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F6">
-        <v>7.8700000000000006E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="G6">
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="H6">
-        <v>0.1013</v>
+        <v>6.3E-2</v>
       </c>
       <c r="J6" t="s">
         <v>149</v>
@@ -2388,26 +2664,26 @@
         <v>145</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="R6" s="4">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="S6" s="4">
-        <v>5.62E-2</v>
+        <v>155</v>
+      </c>
+      <c r="Q6">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="R6">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="S6">
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="2"/>
-        <v>5.9900000000000002E-2</v>
+        <v>3.6466666666666668E-2</v>
       </c>
       <c r="V6" t="s">
         <v>140</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>33</v>
@@ -2415,7 +2691,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
         <v>141</v>
@@ -2427,16 +2703,16 @@
         <v>136</v>
       </c>
       <c r="E7">
-        <v>2.5100000000000001E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="F7">
-        <v>0.1036</v>
+        <v>6.93E-2</v>
       </c>
       <c r="G7">
-        <v>6.25E-2</v>
+        <v>5.9900000000000002E-2</v>
       </c>
       <c r="H7">
-        <v>0.1055</v>
+        <v>7.17E-2</v>
       </c>
       <c r="J7" t="s">
         <v>149</v>
@@ -2445,11 +2721,11 @@
         <v>134</v>
       </c>
       <c r="L7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>좌석및운행정보+외부환경</v>
+        <v>좌석및운행정보+외부환경+과거승차인원수</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="1"/>
@@ -2459,20 +2735,20 @@
         <v>150</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>2.98E-2</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0.1062</v>
-      </c>
-      <c r="S7" s="4">
-        <v>5.8000000000000003E-2</v>
+        <v>155</v>
+      </c>
+      <c r="Q7">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="R7">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="S7">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="2"/>
-        <v>6.4666666666666664E-2</v>
+        <v>4.6599999999999996E-2</v>
       </c>
       <c r="U7" s="4"/>
       <c r="W7" s="1"/>
@@ -2480,7 +2756,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>141</v>
@@ -2492,16 +2768,16 @@
         <v>145</v>
       </c>
       <c r="E8">
-        <v>2.7799999999999998E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="F8">
-        <v>0.10299999999999999</v>
+        <v>6.1800000000000001E-2</v>
       </c>
       <c r="G8">
-        <v>5.3900000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H8">
-        <v>0.10539999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="J8" t="s">
         <v>146</v>
@@ -2510,39 +2786,39 @@
         <v>143</v>
       </c>
       <c r="L8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>좌석및운행정보</v>
+        <v>과거승차인원수</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="1"/>
-        <v>시간정보+외부환경</v>
+        <v>-</v>
       </c>
       <c r="O8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>2.8199999999999999E-2</v>
-      </c>
-      <c r="R8" s="4">
-        <v>8.7599999999999997E-2</v>
-      </c>
-      <c r="S8" s="4">
-        <v>4.8099999999999997E-2</v>
+        <v>154</v>
+      </c>
+      <c r="Q8">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="R8">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="S8">
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="2"/>
-        <v>5.4633333333333332E-2</v>
+        <v>2.7466666666666667E-2</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
         <v>141</v>
@@ -2554,16 +2830,16 @@
         <v>145</v>
       </c>
       <c r="E9">
-        <v>2.7799999999999998E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="F9">
-        <v>0.10299999999999999</v>
+        <v>6.1800000000000001E-2</v>
       </c>
       <c r="G9">
-        <v>5.3900000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H9">
-        <v>0.10539999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="J9" t="s">
         <v>146</v>
@@ -2572,39 +2848,39 @@
         <v>141</v>
       </c>
       <c r="L9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>좌석및운행정보</v>
+        <v>과거승차인원수</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="1"/>
-        <v>시간정보+외부환경</v>
+        <v>-</v>
       </c>
       <c r="O9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>4.19E-2</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0.13819999999999999</v>
-      </c>
-      <c r="S9" s="4">
-        <v>6.83E-2</v>
+        <v>154</v>
+      </c>
+      <c r="Q9">
+        <v>1.15E-2</v>
+      </c>
+      <c r="R9">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="S9">
+        <v>9.01E-2</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="2"/>
-        <v>8.2799999999999999E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
         <v>141</v>
@@ -2613,19 +2889,19 @@
         <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E10">
-        <v>2.46E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="F10">
-        <v>9.4299999999999995E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G10">
-        <v>5.0700000000000002E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="H10">
-        <v>9.9500000000000005E-2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="J10" t="s">
         <v>146</v>
@@ -2648,26 +2924,26 @@
         <v>136</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0.1187</v>
-      </c>
-      <c r="S10" s="4">
+        <v>154</v>
+      </c>
+      <c r="Q10">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="R10">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="S10">
         <v>7.7200000000000005E-2</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="2"/>
-        <v>7.803333333333333E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>141</v>
@@ -2676,19 +2952,19 @@
         <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E11">
-        <v>2.46E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="F11">
-        <v>9.4299999999999995E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G11">
-        <v>5.0700000000000002E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="H11">
-        <v>9.9500000000000005E-2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="J11" t="s">
         <v>144</v>
@@ -2711,25 +2987,25 @@
         <v>136</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="R11" s="4">
-        <v>7.7299999999999994E-2</v>
-      </c>
-      <c r="S11" s="4">
+        <v>154</v>
+      </c>
+      <c r="Q11">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R11">
+        <v>3.73E-2</v>
+      </c>
+      <c r="S11">
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="T11" s="4">
         <f t="shared" si="2"/>
-        <v>4.4266666666666669E-2</v>
+        <v>2.3500000000000004E-2</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
         <v>134</v>
@@ -2741,16 +3017,16 @@
         <v>145</v>
       </c>
       <c r="E12">
-        <v>3.7199999999999997E-2</v>
+        <v>1.18E-2</v>
       </c>
       <c r="F12">
-        <v>0.127</v>
+        <v>9.11E-2</v>
       </c>
       <c r="G12">
         <v>0.1096</v>
       </c>
       <c r="H12">
-        <v>0.13020000000000001</v>
+        <v>9.4600000000000004E-2</v>
       </c>
       <c r="J12" t="s">
         <v>144</v>
@@ -2773,25 +3049,25 @@
         <v>145</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>2.01E-2</v>
-      </c>
-      <c r="R12" s="4">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="S12" s="4">
-        <v>3.5099999999999999E-2</v>
+        <v>155</v>
+      </c>
+      <c r="Q12">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="R12">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="S12">
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="2"/>
-        <v>4.4733333333333326E-2</v>
+        <v>3.4366666666666663E-2</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
         <v>134</v>
@@ -2803,16 +3079,16 @@
         <v>142</v>
       </c>
       <c r="E13">
-        <v>3.3700000000000001E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F13">
-        <v>0.12379999999999999</v>
+        <v>8.5900000000000004E-2</v>
       </c>
       <c r="G13">
         <v>8.09E-2</v>
       </c>
       <c r="H13">
-        <v>0.13750000000000001</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="J13" t="s">
         <v>144</v>
@@ -2821,40 +3097,40 @@
         <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>과거승차인원수</v>
+        <v>좌석및운행정보+외부환경</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>시간정보</v>
       </c>
       <c r="O13" t="s">
         <v>136</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0.1295</v>
-      </c>
-      <c r="S13" s="4">
+        <v>154</v>
+      </c>
+      <c r="Q13">
+        <v>1.44E-2</v>
+      </c>
+      <c r="R13">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="S13">
         <v>7.0400000000000004E-2</v>
       </c>
       <c r="T13" s="4">
         <f t="shared" si="2"/>
-        <v>8.0133333333333334E-2</v>
+        <v>5.9966666666666668E-2</v>
       </c>
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
         <v>134</v>
@@ -2866,16 +3142,16 @@
         <v>142</v>
       </c>
       <c r="E14">
-        <v>3.3700000000000001E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F14">
-        <v>0.12379999999999999</v>
+        <v>8.5900000000000004E-2</v>
       </c>
       <c r="G14">
         <v>8.09E-2</v>
       </c>
       <c r="H14">
-        <v>0.1353</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="J14" t="s">
         <v>133</v>
@@ -2898,25 +3174,25 @@
         <v>136</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="R14" s="4">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="S14" s="4">
+        <v>154</v>
+      </c>
+      <c r="Q14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R14">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S14">
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="T14" s="4">
         <f t="shared" si="2"/>
-        <v>4.9399999999999999E-2</v>
+        <v>2.8800000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
         <v>134</v>
@@ -2925,19 +3201,19 @@
         <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E15">
-        <v>3.49E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="F15">
-        <v>0.13070000000000001</v>
+        <v>0.10680000000000001</v>
       </c>
       <c r="G15">
-        <v>0.10050000000000001</v>
+        <v>0.1013</v>
       </c>
       <c r="H15">
-        <v>0.13869999999999999</v>
+        <v>0.1081</v>
       </c>
       <c r="J15" t="s">
         <v>133</v>
@@ -2960,25 +3236,25 @@
         <v>142</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="R15" s="4">
-        <v>9.9400000000000002E-2</v>
-      </c>
-      <c r="S15" s="4">
-        <v>3.7199999999999997E-2</v>
+        <v>155</v>
+      </c>
+      <c r="Q15">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="R15">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="S15">
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="T15" s="4">
         <f t="shared" si="2"/>
-        <v>5.5033333333333344E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
         <v>134</v>
@@ -2987,19 +3263,19 @@
         <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E16">
-        <v>3.49E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="F16">
-        <v>0.13070000000000001</v>
+        <v>0.10680000000000001</v>
       </c>
       <c r="G16">
-        <v>0.10050000000000001</v>
+        <v>0.1013</v>
       </c>
       <c r="H16">
-        <v>0.1376</v>
+        <v>0.1081</v>
       </c>
       <c r="J16" t="s">
         <v>133</v>
@@ -3022,20 +3298,20 @@
         <v>136</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0.1201</v>
-      </c>
-      <c r="S16" s="4">
+        <v>154</v>
+      </c>
+      <c r="Q16">
+        <v>1.09E-2</v>
+      </c>
+      <c r="R16">
+        <v>8.72E-2</v>
+      </c>
+      <c r="S16">
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="T16" s="4">
         <f t="shared" si="2"/>
-        <v>7.5866666666666666E-2</v>
+        <v>5.5966666666666665E-2</v>
       </c>
       <c r="U16" s="4"/>
     </row>
@@ -3053,16 +3329,16 @@
         <v>147</v>
       </c>
       <c r="E17">
-        <v>2.5499999999999998E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="F17">
-        <v>8.0199999999999994E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="G17">
-        <v>3.78E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="H17">
-        <v>9.0399999999999994E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -3079,16 +3355,16 @@
         <v>148</v>
       </c>
       <c r="E18">
-        <v>2.46E-2</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F18">
-        <v>7.2599999999999998E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="G18">
         <v>3.5799999999999998E-2</v>
       </c>
       <c r="H18">
-        <v>9.0300000000000005E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -3105,16 +3381,16 @@
         <v>148</v>
       </c>
       <c r="E19">
-        <v>2.46E-2</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F19">
-        <v>7.2599999999999998E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="G19">
         <v>3.5799999999999998E-2</v>
       </c>
       <c r="H19">
-        <v>9.6299999999999997E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3130,19 +3406,19 @@
         <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20">
-        <v>2.46E-2</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F20">
-        <v>7.2599999999999998E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="G20">
         <v>3.5799999999999998E-2</v>
       </c>
       <c r="H20">
-        <v>8.0199999999999994E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="O20" s="1"/>
     </row>
@@ -3157,19 +3433,19 @@
         <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21">
-        <v>2.46E-2</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F21">
-        <v>7.2599999999999998E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="G21">
         <v>3.5799999999999998E-2</v>
       </c>
       <c r="H21">
-        <v>9.3700000000000006E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="O21" s="1"/>
     </row>
@@ -3184,19 +3460,19 @@
         <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E22">
-        <v>2.46E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="F22">
-        <v>0.10390000000000001</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="G22">
-        <v>5.0200000000000002E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="H22">
-        <v>0.1115</v>
+        <v>7.8799999999999995E-2</v>
       </c>
       <c r="O22" s="1"/>
     </row>
@@ -3211,19 +3487,19 @@
         <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E23">
-        <v>2.8500000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="F23">
-        <v>0.1154</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="G23">
-        <v>6.0600000000000001E-2</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="H23">
-        <v>0.1182</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="O23" s="1"/>
     </row>
@@ -3241,16 +3517,16 @@
         <v>136</v>
       </c>
       <c r="E24">
-        <v>2.8500000000000001E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="F24">
-        <v>0.1154</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="G24">
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="H24">
-        <v>0.1182</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3269,16 +3545,16 @@
         <v>145</v>
       </c>
       <c r="E25">
-        <v>2.5999999999999999E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="F25">
-        <v>9.7500000000000003E-2</v>
+        <v>6.1800000000000001E-2</v>
       </c>
       <c r="G25">
-        <v>5.62E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="H25">
-        <v>0.1074</v>
+        <v>6.8900000000000003E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -3295,16 +3571,16 @@
         <v>145</v>
       </c>
       <c r="E26">
-        <v>2.5999999999999999E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="F26">
-        <v>9.7500000000000003E-2</v>
+        <v>6.1800000000000001E-2</v>
       </c>
       <c r="G26">
-        <v>5.62E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="H26">
-        <v>0.1074</v>
+        <v>6.8900000000000003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -3321,16 +3597,16 @@
         <v>136</v>
       </c>
       <c r="E27">
-        <v>3.78E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="F27">
-        <v>0.1222</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="G27">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="H27">
-        <v>0.123</v>
+        <v>8.7400000000000005E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -3347,16 +3623,16 @@
         <v>136</v>
       </c>
       <c r="E28">
-        <v>3.78E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="F28">
-        <v>0.1222</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="G28">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="H28">
-        <v>0.1734</v>
+        <v>0.10150000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -3373,16 +3649,16 @@
         <v>136</v>
       </c>
       <c r="E29">
-        <v>3.78E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="F29">
-        <v>0.1222</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="G29">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="H29">
-        <v>0.1263</v>
+        <v>0.10150000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -3399,16 +3675,16 @@
         <v>150</v>
       </c>
       <c r="E30">
-        <v>2.98E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="F30">
-        <v>0.1062</v>
+        <v>6.8699999999999997E-2</v>
       </c>
       <c r="G30">
-        <v>5.8000000000000003E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H30">
-        <v>0.1149</v>
+        <v>7.7499999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -3425,16 +3701,16 @@
         <v>150</v>
       </c>
       <c r="E31">
-        <v>2.98E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="F31">
-        <v>0.1062</v>
+        <v>6.8699999999999997E-2</v>
       </c>
       <c r="G31">
-        <v>5.8000000000000003E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H31">
-        <v>0.1149</v>
+        <v>7.8700000000000006E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -3448,19 +3724,19 @@
         <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E32">
-        <v>2.9100000000000001E-2</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="F32">
-        <v>9.5399999999999999E-2</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="G32">
-        <v>5.1799999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H32">
-        <v>0.1036</v>
+        <v>5.3100000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -3477,16 +3753,16 @@
         <v>148</v>
       </c>
       <c r="E33">
-        <v>2.8199999999999999E-2</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F33">
-        <v>8.7599999999999997E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="G33">
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="H33">
-        <v>0.12920000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -3503,16 +3779,16 @@
         <v>148</v>
       </c>
       <c r="E34">
-        <v>2.8199999999999999E-2</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F34">
-        <v>8.7599999999999997E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="G34">
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="H34">
-        <v>0.12920000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -3529,16 +3805,16 @@
         <v>136</v>
       </c>
       <c r="E35">
-        <v>2.9100000000000001E-2</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F35">
-        <v>9.5399999999999999E-2</v>
+        <v>5.8299999999999998E-2</v>
       </c>
       <c r="G35">
         <v>5.1799999999999999E-2</v>
       </c>
       <c r="H35">
-        <v>0.18629999999999999</v>
+        <v>9.7900000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3555,16 +3831,16 @@
         <v>136</v>
       </c>
       <c r="E36">
-        <v>2.9100000000000001E-2</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F36">
-        <v>9.5399999999999999E-2</v>
+        <v>5.8299999999999998E-2</v>
       </c>
       <c r="G36">
         <v>5.1799999999999999E-2</v>
       </c>
       <c r="H36">
-        <v>0.18629999999999999</v>
+        <v>9.7900000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -3581,16 +3857,16 @@
         <v>147</v>
       </c>
       <c r="E37">
-        <v>3.3799999999999997E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="F37">
-        <v>0.14130000000000001</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="G37">
-        <v>0.10199999999999999</v>
+        <v>9.01E-2</v>
       </c>
       <c r="H37">
-        <v>0.14369999999999999</v>
+        <v>9.98E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -3607,16 +3883,16 @@
         <v>148</v>
       </c>
       <c r="E38">
-        <v>4.19E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="F38">
-        <v>0.13819999999999999</v>
+        <v>9.8900000000000002E-2</v>
       </c>
       <c r="G38">
-        <v>6.83E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="H38">
-        <v>0.1754</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3633,16 +3909,16 @@
         <v>148</v>
       </c>
       <c r="E39">
-        <v>4.19E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="F39">
-        <v>0.13819999999999999</v>
+        <v>9.8900000000000002E-2</v>
       </c>
       <c r="G39">
-        <v>6.83E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="H39">
-        <v>0.1754</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3656,19 +3932,19 @@
         <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E40">
-        <v>3.7999999999999999E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="F40">
-        <v>0.1449</v>
+        <v>0.10929999999999999</v>
       </c>
       <c r="G40">
-        <v>0.1016</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="H40">
-        <v>0.16070000000000001</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3682,19 +3958,19 @@
         <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E41">
-        <v>3.7999999999999999E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="F41">
-        <v>0.1449</v>
+        <v>0.10929999999999999</v>
       </c>
       <c r="G41">
-        <v>0.1016</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="H41">
-        <v>0.16070000000000001</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -3711,16 +3987,16 @@
         <v>136</v>
       </c>
       <c r="E42">
-        <v>3.8199999999999998E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F42">
-        <v>0.1187</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="G42">
         <v>7.7200000000000005E-2</v>
       </c>
       <c r="H42">
-        <v>0.1244</v>
+        <v>9.2100000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -3737,16 +4013,16 @@
         <v>136</v>
       </c>
       <c r="E43">
-        <v>3.8199999999999998E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F43">
-        <v>0.1187</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="G43">
         <v>7.7200000000000005E-2</v>
       </c>
       <c r="H43">
-        <v>0.15959999999999999</v>
+        <v>0.13439999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -3763,16 +4039,16 @@
         <v>136</v>
       </c>
       <c r="E44">
-        <v>3.8199999999999998E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F44">
-        <v>0.1187</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="G44">
         <v>7.7200000000000005E-2</v>
       </c>
       <c r="H44">
-        <v>0.1668</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -3789,16 +4065,16 @@
         <v>136</v>
       </c>
       <c r="E45">
-        <v>3.8199999999999998E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F45">
-        <v>0.1187</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="G45">
         <v>7.7200000000000005E-2</v>
       </c>
       <c r="H45">
-        <v>0.2477</v>
+        <v>0.18229999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -3815,16 +4091,16 @@
         <v>136</v>
       </c>
       <c r="E46">
-        <v>3.8199999999999998E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F46">
-        <v>0.1187</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="G46">
         <v>7.7200000000000005E-2</v>
       </c>
       <c r="H46">
-        <v>0.2477</v>
+        <v>0.18229999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -3841,16 +4117,16 @@
         <v>136</v>
       </c>
       <c r="E47">
-        <v>2.4799999999999999E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F47">
-        <v>7.7299999999999994E-2</v>
+        <v>3.73E-2</v>
       </c>
       <c r="G47">
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="H47">
-        <v>8.9099999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -3867,16 +4143,16 @@
         <v>136</v>
       </c>
       <c r="E48">
-        <v>2.4799999999999999E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F48">
-        <v>7.7299999999999994E-2</v>
+        <v>3.73E-2</v>
       </c>
       <c r="G48">
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="H48">
-        <v>0.1134</v>
+        <v>6.9400000000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -3893,16 +4169,16 @@
         <v>136</v>
       </c>
       <c r="E49">
-        <v>2.4799999999999999E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F49">
-        <v>7.7299999999999994E-2</v>
+        <v>3.73E-2</v>
       </c>
       <c r="G49">
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="H49">
-        <v>0.1134</v>
+        <v>7.4099999999999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -3919,16 +4195,16 @@
         <v>136</v>
       </c>
       <c r="E50">
-        <v>2.4799999999999999E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F50">
-        <v>7.7299999999999994E-2</v>
+        <v>3.73E-2</v>
       </c>
       <c r="G50">
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="H50">
-        <v>0.11119999999999999</v>
+        <v>6.9400000000000003E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -3945,16 +4221,16 @@
         <v>136</v>
       </c>
       <c r="E51">
-        <v>2.4799999999999999E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F51">
-        <v>7.7299999999999994E-2</v>
+        <v>3.73E-2</v>
       </c>
       <c r="G51">
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="H51">
-        <v>0.11119999999999999</v>
+        <v>6.93E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3971,16 +4247,16 @@
         <v>136</v>
       </c>
       <c r="E52">
-        <v>2.69E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="F52">
-        <v>0.11700000000000001</v>
+        <v>8.3500000000000005E-2</v>
       </c>
       <c r="G52">
-        <v>9.3600000000000003E-2</v>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="H52">
-        <v>0.125</v>
+        <v>8.6800000000000002E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -3997,16 +4273,16 @@
         <v>136</v>
       </c>
       <c r="E53">
-        <v>2.69E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="F53">
-        <v>0.11700000000000001</v>
+        <v>8.3500000000000005E-2</v>
       </c>
       <c r="G53">
-        <v>9.3600000000000003E-2</v>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="H53">
-        <v>0.1283</v>
+        <v>9.11E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -4023,16 +4299,16 @@
         <v>136</v>
       </c>
       <c r="E54">
-        <v>2.69E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="F54">
-        <v>0.11700000000000001</v>
+        <v>8.3500000000000005E-2</v>
       </c>
       <c r="G54">
-        <v>9.3600000000000003E-2</v>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="H54">
-        <v>0.1283</v>
+        <v>9.1700000000000004E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -4049,16 +4325,16 @@
         <v>145</v>
       </c>
       <c r="E55">
-        <v>2.01E-2</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F55">
-        <v>7.9000000000000001E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="G55">
-        <v>3.5099999999999999E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="H55">
-        <v>0.10440000000000001</v>
+        <v>6.9599999999999995E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4075,16 +4351,16 @@
         <v>145</v>
       </c>
       <c r="E56">
-        <v>2.01E-2</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F56">
-        <v>7.9000000000000001E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="G56">
-        <v>3.5099999999999999E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="H56">
-        <v>0.10440000000000001</v>
+        <v>6.9599999999999995E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4101,16 +4377,16 @@
         <v>136</v>
       </c>
       <c r="E57">
-        <v>4.0500000000000001E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="F57">
-        <v>0.1295</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="G57">
         <v>7.0400000000000004E-2</v>
       </c>
       <c r="H57">
-        <v>0.13009999999999999</v>
+        <v>9.5100000000000004E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4127,16 +4403,16 @@
         <v>136</v>
       </c>
       <c r="E58">
-        <v>4.0500000000000001E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="F58">
-        <v>0.1295</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="G58">
         <v>7.0400000000000004E-2</v>
       </c>
       <c r="H58">
-        <v>0.13469999999999999</v>
+        <v>0.10009999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -4153,16 +4429,16 @@
         <v>136</v>
       </c>
       <c r="E59">
-        <v>4.0500000000000001E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="F59">
-        <v>0.1295</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="G59">
         <v>7.0400000000000004E-2</v>
       </c>
       <c r="H59">
-        <v>0.13900000000000001</v>
+        <v>0.10009999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4179,16 +4455,16 @@
         <v>136</v>
       </c>
       <c r="E60">
-        <v>4.0500000000000001E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="F60">
-        <v>0.1295</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="G60">
         <v>7.0400000000000004E-2</v>
       </c>
       <c r="H60">
-        <v>0.1351</v>
+        <v>9.4500000000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -4205,16 +4481,16 @@
         <v>136</v>
       </c>
       <c r="E61">
-        <v>4.0500000000000001E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="F61">
-        <v>0.1295</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="G61">
         <v>7.0400000000000004E-2</v>
       </c>
       <c r="H61">
-        <v>0.1351</v>
+        <v>9.4500000000000001E-2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -4231,16 +4507,16 @@
         <v>136</v>
       </c>
       <c r="E62">
-        <v>2.7400000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F62">
-        <v>8.3400000000000002E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G62">
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="H62">
-        <v>8.9300000000000004E-2</v>
+        <v>4.99E-2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4257,16 +4533,16 @@
         <v>136</v>
       </c>
       <c r="E63">
-        <v>2.7400000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F63">
-        <v>8.3400000000000002E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G63">
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="H63">
-        <v>0.1132</v>
+        <v>7.6200000000000004E-2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -4283,16 +4559,16 @@
         <v>136</v>
       </c>
       <c r="E64">
-        <v>2.7400000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F64">
-        <v>8.3400000000000002E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G64">
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="H64">
-        <v>9.0300000000000005E-2</v>
+        <v>7.6200000000000004E-2</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4309,16 +4585,16 @@
         <v>136</v>
       </c>
       <c r="E65">
-        <v>2.7400000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F65">
-        <v>8.3400000000000002E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G65">
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="H65">
-        <v>0.106</v>
+        <v>5.3199999999999997E-2</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4335,16 +4611,16 @@
         <v>136</v>
       </c>
       <c r="E66">
-        <v>2.7400000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F66">
-        <v>8.3400000000000002E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G66">
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="H66">
-        <v>0.106</v>
+        <v>6.0900000000000003E-2</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4361,16 +4637,16 @@
         <v>136</v>
       </c>
       <c r="E67">
-        <v>2.8899999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F67">
-        <v>0.1018</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="G67">
-        <v>4.8099999999999997E-2</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="H67">
-        <v>0.1079</v>
+        <v>6.6799999999999998E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4387,16 +4663,16 @@
         <v>136</v>
       </c>
       <c r="E68">
-        <v>2.8899999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F68">
-        <v>0.1018</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="G68">
-        <v>4.8099999999999997E-2</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="H68">
-        <v>0.13220000000000001</v>
+        <v>9.1200000000000003E-2</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4413,16 +4689,16 @@
         <v>136</v>
       </c>
       <c r="E69">
-        <v>2.8899999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F69">
-        <v>0.1018</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="G69">
-        <v>4.8099999999999997E-2</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="H69">
-        <v>0.11609999999999999</v>
+        <v>9.1200000000000003E-2</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -4439,16 +4715,16 @@
         <v>142</v>
       </c>
       <c r="E70">
-        <v>2.8500000000000001E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="F70">
-        <v>9.9400000000000002E-2</v>
+        <v>5.7799999999999997E-2</v>
       </c>
       <c r="G70">
-        <v>3.7199999999999997E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="H70">
-        <v>9.7799999999999998E-2</v>
+        <v>5.5500000000000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -4465,16 +4741,16 @@
         <v>142</v>
       </c>
       <c r="E71">
-        <v>2.8500000000000001E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="F71">
-        <v>9.9400000000000002E-2</v>
+        <v>5.7799999999999997E-2</v>
       </c>
       <c r="G71">
-        <v>3.7199999999999997E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="H71">
-        <v>9.7799999999999998E-2</v>
+        <v>5.5500000000000001E-2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -4491,16 +4767,16 @@
         <v>136</v>
       </c>
       <c r="E72">
-        <v>3.7699999999999997E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="F72">
-        <v>0.1201</v>
+        <v>8.72E-2</v>
       </c>
       <c r="G72">
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="H72">
-        <v>0.1305</v>
+        <v>9.8100000000000007E-2</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -4517,16 +4793,16 @@
         <v>136</v>
       </c>
       <c r="E73">
-        <v>3.7699999999999997E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="F73">
-        <v>0.1201</v>
+        <v>8.72E-2</v>
       </c>
       <c r="G73">
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="H73">
-        <v>0.1244</v>
+        <v>9.1200000000000003E-2</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -4543,16 +4819,16 @@
         <v>136</v>
       </c>
       <c r="E74">
-        <v>3.7699999999999997E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="F74">
-        <v>0.1201</v>
+        <v>8.72E-2</v>
       </c>
       <c r="G74">
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="H74">
-        <v>0.1244</v>
+        <v>9.1200000000000003E-2</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -4569,16 +4845,16 @@
         <v>136</v>
       </c>
       <c r="E75">
-        <v>3.7699999999999997E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="F75">
-        <v>0.1201</v>
+        <v>8.72E-2</v>
       </c>
       <c r="G75">
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="H75">
-        <v>0.1244</v>
+        <v>0.10349999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -4595,16 +4871,16 @@
         <v>136</v>
       </c>
       <c r="E76">
-        <v>3.7699999999999997E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="F76">
-        <v>0.1201</v>
+        <v>8.72E-2</v>
       </c>
       <c r="G76">
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="H76">
-        <v>0.13689999999999999</v>
+        <v>0.10349999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Project-KTXForecasting/Result/Result_Stats_KK.xlsx
+++ b/Project-KTXForecasting/Result/Result_Stats_KK.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB72843-1862-4C2D-851E-ED7D54B2C97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9339B578-37CA-4B03-8089-9B8BFB0C846F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{AC808E02-6729-4071-B5AC-204983E17A37}"/>
+    <workbookView xWindow="6860" yWindow="4680" windowWidth="28800" windowHeight="13120" activeTab="3" xr2:uid="{AC808E02-6729-4071-B5AC-204983E17A37}"/>
   </bookViews>
   <sheets>
-    <sheet name="독립변수" sheetId="1" r:id="rId1"/>
-    <sheet name="기초통계" sheetId="4" r:id="rId2"/>
-    <sheet name="BaggingBoosting" sheetId="2" r:id="rId3"/>
-    <sheet name="ResultOpt" sheetId="3" r:id="rId4"/>
+    <sheet name="진행내용" sheetId="6" r:id="rId1"/>
+    <sheet name="독립변수" sheetId="1" r:id="rId2"/>
+    <sheet name="독립변수정리" sheetId="5" r:id="rId3"/>
+    <sheet name="기초통계" sheetId="4" r:id="rId4"/>
+    <sheet name="BaggingBoosting" sheetId="2" r:id="rId5"/>
+    <sheet name="ResultOpt" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ResultOpt!$A$1:$G$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ResultOpt!$A$1:$G$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="190">
   <si>
     <t>전체주중주말</t>
   </si>
@@ -843,13 +845,132 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>월별 승차인원수 평균</t>
-  </si>
-  <si>
-    <t>월별 승차인원수 표준편차</t>
-  </si>
-  <si>
-    <t>월별 승차인원수 최대값</t>
+    <t>카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 1개월~12개월 전 승차인원수 데이터를 변수로 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양력/음력 기반 공휴일과 대체휴일로 주말수/주중수/공휴일수 등 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급차량수, 공급좌석합계수, 승차수입금액, 승차인원수, 승차연인거리, 좌석거리, 1인당수입율, 공급대비승차율, 운행대비고객이동, 관광, 일반, 일반/관광, 대수송, 임시, 확정, 시발역, 종착역, 시발종착역, 열차운행횟수 전처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코로나 관련 정부기관 대응정도와 감염/격리/사망자 수 포함한 경제환경 데이터 결합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습(Training)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증(Validate)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측(Test)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 구축을 위해 사용되는 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 구출 후 예측성능 검증에 사용되는 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증성능이 높은 모델로 실제 예측에 사용되는 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015년 1월 ~ 2023년 3월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년 4월 ~ 2024년 3월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 4월 ~ 2025년 12월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종속변수(Y)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측 대상인 승차인원수 변수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립변수(X)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>승차인원수에 영향을 줄거라 예상되는 변수 32종</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준편차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>승차인원수</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -862,7 +983,7 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,21 +1024,79 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -929,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,6 +1127,30 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -964,6 +1167,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>545124</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C585C837-3DD2-4735-AB49-E1F88A078B0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="177800"/>
+          <a:ext cx="7809524" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1262,6 +1514,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54E646A-B7D5-40CE-BB26-CFC7ADD6BDC1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF193ACD-0AB7-4B2A-9581-E48569D9581F}">
   <dimension ref="A1:D59"/>
   <sheetViews>
@@ -1872,12 +2140,150 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E816AEE-3F07-42B7-8E09-01B80DBF9077}">
+  <dimension ref="B2:G13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="45.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="17" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" ht="17" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" ht="17" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" ht="68" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" ht="34" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17" x14ac:dyDescent="0.3">
+      <c r="E8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.3">
+      <c r="E9" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17" x14ac:dyDescent="0.3">
+      <c r="E10" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17" x14ac:dyDescent="0.3">
+      <c r="E11" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17" x14ac:dyDescent="0.3">
+      <c r="E12" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17" x14ac:dyDescent="0.3">
+      <c r="E13" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E997E6F-1255-4136-9DBD-C835F55E85A4}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1886,22 +2292,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2130,12 +2541,15 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F637FBD-389D-4337-A376-332D6C455648}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2232,11 +2646,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD59130C-D36E-4750-9F51-D7ED1F98F6A2}">
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
